--- a/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
+++ b/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
@@ -154,12 +154,12 @@
     <t>Christensenellales</t>
   </si>
   <si>
+    <t>Sphingobacteriales</t>
+  </si>
+  <si>
     <t>Micrococcales</t>
   </si>
   <si>
-    <t>Sphingobacteriales</t>
-  </si>
-  <si>
     <t>RF39</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Erwiniaceae</t>
   </si>
   <si>
+    <t>Sphingobacteriaceae</t>
+  </si>
+  <si>
     <t>Micrococcaceae</t>
   </si>
   <si>
-    <t>Sphingobacteriaceae</t>
-  </si>
-  <si>
     <t>Rhodobacteraceae</t>
   </si>
   <si>
@@ -298,12 +298,12 @@
     <t>Comamonadaceae</t>
   </si>
   <si>
+    <t>Veillonellaceae</t>
+  </si>
+  <si>
     <t>Erysipelatoclostridiaceae</t>
   </si>
   <si>
-    <t>Veillonellaceae</t>
-  </si>
-  <si>
     <t>Caulobacteraceae</t>
   </si>
   <si>
@@ -406,12 +406,12 @@
     <t>Pseudomonas</t>
   </si>
   <si>
+    <t>Frisingicoccus</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Frisingicoccus</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-001</t>
   </si>
   <si>
@@ -439,12 +439,12 @@
     <t>Pantoea</t>
   </si>
   <si>
+    <t>Sphingobacterium</t>
+  </si>
+  <si>
     <t>Rothia</t>
   </si>
   <si>
-    <t>Sphingobacterium</t>
-  </si>
-  <si>
     <t>Hungatella</t>
   </si>
   <si>
@@ -466,19 +466,19 @@
     <t>Defluviitaleaceae_UCG-011</t>
   </si>
   <si>
+    <t>Family_XIII_AD3011_group</t>
+  </si>
+  <si>
     <t>Globicatella</t>
   </si>
   <si>
-    <t>Family_XIII_AD3011_group</t>
-  </si>
-  <si>
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>Veillonella</t>
+  </si>
+  <si>
     <t>Erysipelatoclostridium</t>
-  </si>
-  <si>
-    <t>Veillonella</t>
   </si>
   <si>
     <t>Aquabacterium</t>
@@ -1576,10 +1576,10 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1590,10 +1590,10 @@
         <v>74</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2202,10 +2202,10 @@
         <v>74</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2216,10 +2216,10 @@
         <v>74</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2968,10 +2968,10 @@
         <v>387</v>
       </c>
       <c r="C41">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="D41">
-        <v>108</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2982,10 +2982,10 @@
         <v>387</v>
       </c>
       <c r="C42">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="D42">
-        <v>264</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3136,10 +3136,10 @@
         <v>74</v>
       </c>
       <c r="C53">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -3150,10 +3150,10 @@
         <v>74</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D54">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -3276,10 +3276,10 @@
         <v>17</v>
       </c>
       <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
         <v>17</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -3290,10 +3290,10 @@
         <v>17</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">

--- a/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
+++ b/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
@@ -197,12 +197,12 @@
     <t>Christensenellales</t>
   </si>
   <si>
+    <t>Sphingobacteriales</t>
+  </si>
+  <si>
     <t>Micrococcales</t>
   </si>
   <si>
-    <t>Sphingobacteriales</t>
-  </si>
-  <si>
     <t>RF39</t>
   </si>
   <si>
@@ -473,12 +473,12 @@
     <t>[Eubacterium]_nodatum_group</t>
   </si>
   <si>
+    <t>Streptococcus</t>
+  </si>
+  <si>
     <t>Enhydrobacter</t>
   </si>
   <si>
-    <t>Streptococcus</t>
-  </si>
-  <si>
     <t>Pantoea</t>
   </si>
   <si>
@@ -518,16 +518,16 @@
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>Veillonella</t>
+  </si>
+  <si>
     <t>Erysipelatoclostridium</t>
   </si>
   <si>
-    <t>Veillonella</t>
+    <t>Aquabacterium</t>
   </si>
   <si>
     <t>Brevundimonas</t>
-  </si>
-  <si>
-    <t>Aquabacterium</t>
   </si>
   <si>
     <t>Aerococcus</t>
@@ -27696,10 +27696,10 @@
         <v>74</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -27717,7 +27717,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -27732,10 +27732,10 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P22">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -27746,10 +27746,10 @@
         <v>74</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D23">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -27767,7 +27767,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -33066,10 +33066,10 @@
         <v>97</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -33084,7 +33084,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -33105,7 +33105,7 @@
         <v>0</v>
       </c>
       <c r="P50">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -33116,10 +33116,10 @@
         <v>97</v>
       </c>
       <c r="C51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -33134,7 +33134,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -33155,7 +33155,7 @@
         <v>0</v>
       </c>
       <c r="P51">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -33896,16 +33896,16 @@
         <v>0</v>
       </c>
       <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
         <v>10</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -33946,7 +33946,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -33955,7 +33955,7 @@
         <v>0</v>
       </c>
       <c r="P67">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -33993,7 +33993,7 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -34002,7 +34002,7 @@
         <v>0</v>
       </c>
       <c r="O68">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>8</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
       </c>
       <c r="P69">
         <v>0</v>

--- a/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
+++ b/experiments/miliane-CxAC-trim/sheets/abundance-ranks-miliane-CxAC-trim.xlsx
@@ -215,12 +215,12 @@
     <t>Sphingomonadales</t>
   </si>
   <si>
+    <t>Erysipelotrichales</t>
+  </si>
+  <si>
     <t>Veillonellales-Selenomonadales</t>
   </si>
   <si>
-    <t>Erysipelotrichales</t>
-  </si>
-  <si>
     <t>Caulobacterales</t>
   </si>
   <si>
@@ -311,12 +311,12 @@
     <t>Erwiniaceae</t>
   </si>
   <si>
+    <t>Micrococcaceae</t>
+  </si>
+  <si>
     <t>Sphingobacteriaceae</t>
   </si>
   <si>
-    <t>Micrococcaceae</t>
-  </si>
-  <si>
     <t>Rhodobacteraceae</t>
   </si>
   <si>
@@ -449,12 +449,12 @@
     <t>Pseudomonas</t>
   </si>
   <si>
+    <t>Frisingicoccus</t>
+  </si>
+  <si>
     <t>Blautia</t>
   </si>
   <si>
-    <t>Frisingicoccus</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-001</t>
   </si>
   <si>
@@ -509,25 +509,25 @@
     <t>Defluviitaleaceae_UCG-011</t>
   </si>
   <si>
+    <t>Globicatella</t>
+  </si>
+  <si>
     <t>Family_XIII_AD3011_group</t>
   </si>
   <si>
-    <t>Globicatella</t>
-  </si>
-  <si>
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>Erysipelatoclostridium</t>
+  </si>
+  <si>
     <t>Veillonella</t>
   </si>
   <si>
-    <t>Erysipelatoclostridium</t>
+    <t>Brevundimonas</t>
   </si>
   <si>
     <t>Aquabacterium</t>
-  </si>
-  <si>
-    <t>Brevundimonas</t>
   </si>
   <si>
     <t>Aerococcus</t>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -28085,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -28126,16 +28126,16 @@
         <v>0</v>
       </c>
       <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
         <v>10</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -29906,10 +29906,10 @@
         <v>74</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -29927,7 +29927,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -29942,10 +29942,10 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -29956,10 +29956,10 @@
         <v>74</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -29977,7 +29977,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -29992,10 +29992,10 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="P36">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -32616,46 +32616,46 @@
         <v>387</v>
       </c>
       <c r="C41">
-        <v>279</v>
+        <v>123</v>
       </c>
       <c r="D41">
+        <v>264</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>108</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>8</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>255</v>
-      </c>
       <c r="J41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="N41">
         <v>0</v>
       </c>
       <c r="O41">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -32666,10 +32666,10 @@
         <v>387</v>
       </c>
       <c r="C42">
-        <v>123</v>
+        <v>279</v>
       </c>
       <c r="D42">
-        <v>264</v>
+        <v>108</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -32678,34 +32678,34 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -33716,26 +33716,26 @@
         <v>17</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>17</v>
       </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63">
         <v>0</v>
       </c>
@@ -33743,7 +33743,7 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -33766,11 +33766,11 @@
         <v>17</v>
       </c>
       <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>17</v>
       </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
       <c r="E64">
         <v>0</v>
       </c>
@@ -33784,16 +33784,16 @@
         <v>0</v>
       </c>
       <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>17</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -33896,7 +33896,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -33905,7 +33905,7 @@
         <v>0</v>
       </c>
       <c r="P66">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -33946,16 +33946,16 @@
         <v>0</v>
       </c>
       <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
         <v>10</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -33993,16 +33993,16 @@
         <v>0</v>
       </c>
       <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>8</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -34043,7 +34043,7 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -34052,7 +34052,7 @@
         <v>0</v>
       </c>
       <c r="O69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P69">
         <v>0</v>
